--- a/surv/pump_failure_table.xlsx
+++ b/surv/pump_failure_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Carr\Documents\MSA1 PC\fall3\surv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DE6AF2-FFD1-4947-A356-13BC90293688}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E6B633-DD9D-4A86-A877-54D603C9839F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{DE70DD61-0688-4F14-BFCD-BC7E4B4BD3E0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Reason</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>% of Pumps That Failed</t>
+  </si>
+  <si>
+    <t>All Reasons</t>
+  </si>
+  <si>
+    <t>Median Survival Time (hours)</t>
   </si>
 </sst>
 </file>
@@ -148,7 +154,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EC137F7-0ABD-4DCD-A747-DF51EAC3C866}" name="Table1" displayName="Table1" ref="A1:D6" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EC137F7-0ABD-4DCD-A747-DF51EAC3C866}" name="Table1" displayName="Table1" ref="A1:D6" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4">
   <autoFilter ref="A1:D6" xr:uid="{91DD545B-7706-479E-88D8-4D9FAAC21B68}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -156,10 +162,24 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{78967DA2-2F92-4C03-B727-5C898B628532}" name="Reason" totalsRowLabel="Total" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{F85BE4BD-5005-412C-B06B-412DF592E5DA}" name="Count of Failures" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{DF6863FE-174F-4514-9B83-07AA4C9A484D}" name="% of Pumps That Failed" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{38D89118-489E-41B1-B7D0-656EA43C7975}" name="% of All Pumps" totalsRowFunction="sum" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{78967DA2-2F92-4C03-B727-5C898B628532}" name="Reason" totalsRowLabel="Total" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F85BE4BD-5005-412C-B06B-412DF592E5DA}" name="Count of Failures" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{DF6863FE-174F-4514-9B83-07AA4C9A484D}" name="% of Pumps That Failed" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{38D89118-489E-41B1-B7D0-656EA43C7975}" name="% of All Pumps" totalsRowFunction="sum" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BAFCC1CF-02B1-4AB4-B368-5C28A1622904}" name="Table2" displayName="Table2" ref="F1:G6" totalsRowShown="0">
+  <autoFilter ref="F1:G6" xr:uid="{DBFD6555-16AC-431F-AC39-28FBCA7B3EDA}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7E6F8C78-9272-48ED-823B-490F1DEBEB56}" name="Reason"/>
+    <tableColumn id="2" xr3:uid="{097EA00F-F465-4892-930C-E2B6DF7D17A0}" name="Median Survival Time (hours)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -462,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB05AA3C-20E2-49FA-8B67-82281223363F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,9 +494,11 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +511,14 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -503,8 +531,14 @@
       <c r="D2" s="1">
         <v>14.94</v>
       </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -517,8 +551,14 @@
       <c r="D3" s="1">
         <v>14.55</v>
       </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -531,8 +571,14 @@
       <c r="D4" s="1">
         <v>14.42</v>
       </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -545,8 +591,14 @@
       <c r="D5" s="1">
         <v>15.06</v>
       </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -560,13 +612,20 @@
       <c r="D6" s="2">
         <f>SUM(D2:D5)</f>
         <v>58.970000000000006</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/surv/pump_failure_table.xlsx
+++ b/surv/pump_failure_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Carr\Documents\MSA1 PC\fall3\surv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E6B633-DD9D-4A86-A877-54D603C9839F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C9F52-1E63-4F5E-878A-9327156751A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{DE70DD61-0688-4F14-BFCD-BC7E4B4BD3E0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Reason</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Jammed</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>% of All Pumps</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Median Survival Time (hours)</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -154,26 +160,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EC137F7-0ABD-4DCD-A747-DF51EAC3C866}" name="Table1" displayName="Table1" ref="A1:D6" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4">
-  <autoFilter ref="A1:D6" xr:uid="{91DD545B-7706-479E-88D8-4D9FAAC21B68}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EC137F7-0ABD-4DCD-A747-DF51EAC3C866}" name="Table1" displayName="Table1" ref="A1:E6" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
+  <autoFilter ref="A1:E6" xr:uid="{91DD545B-7706-479E-88D8-4D9FAAC21B68}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{78967DA2-2F92-4C03-B727-5C898B628532}" name="Reason" totalsRowLabel="Total" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F85BE4BD-5005-412C-B06B-412DF592E5DA}" name="Count of Failures" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{DF6863FE-174F-4514-9B83-07AA4C9A484D}" name="% of Pumps That Failed" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{38D89118-489E-41B1-B7D0-656EA43C7975}" name="% of All Pumps" totalsRowFunction="sum" dataDxfId="0"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{78967DA2-2F92-4C03-B727-5C898B628532}" name="Reason" totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F85BE4BD-5005-412C-B06B-412DF592E5DA}" name="Count of Failures" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DF6863FE-174F-4514-9B83-07AA4C9A484D}" name="% of Pumps That Failed" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{38D89118-489E-41B1-B7D0-656EA43C7975}" name="% of All Pumps" totalsRowFunction="sum" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{6983FB0A-E7BE-43CC-A50D-CAAA376A9207}" name="Median Survival Time (hours)" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BAFCC1CF-02B1-4AB4-B368-5C28A1622904}" name="Table2" displayName="Table2" ref="F1:G6" totalsRowShown="0">
-  <autoFilter ref="F1:G6" xr:uid="{DBFD6555-16AC-431F-AC39-28FBCA7B3EDA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BAFCC1CF-02B1-4AB4-B368-5C28A1622904}" name="Table2" displayName="Table2" ref="G1:H6" totalsRowShown="0">
+  <autoFilter ref="G1:H6" xr:uid="{DBFD6555-16AC-431F-AC39-28FBCA7B3EDA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -482,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB05AA3C-20E2-49FA-8B67-82281223363F}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,12 +501,13 @@
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,19 +515,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
+      <c r="H1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -531,14 +543,17 @@
       <c r="D2" s="1">
         <v>14.94</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -551,14 +566,17 @@
       <c r="D3" s="1">
         <v>14.55</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="1">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -571,14 +589,17 @@
       <c r="D4" s="1">
         <v>14.42</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -591,16 +612,19 @@
       <c r="D5" s="1">
         <v>15.06</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="1">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <f>SUM(B2:B5)</f>
@@ -613,10 +637,13 @@
         <f>SUM(D2:D5)</f>
         <v>58.970000000000006</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="1">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
         <v>45</v>
       </c>
     </row>
